--- a/state_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/state_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U394"/>
+  <dimension ref="A1:U415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6569,7 +6569,7 @@
         <v>0.9375</v>
       </c>
       <c r="G77" t="n">
-        <v>1.11057969143896</v>
+        <v>1.11053155143536</v>
       </c>
       <c r="H77" t="n">
         <v>3.75</v>
@@ -7391,7 +7391,7 @@
         <v>0.49</v>
       </c>
       <c r="G87" t="n">
-        <v>0.657514391044441</v>
+        <v>0.6574426551246429</v>
       </c>
       <c r="H87" t="n">
         <v>6.25</v>
@@ -7472,7 +7472,7 @@
         <v>0.49</v>
       </c>
       <c r="G88" t="n">
-        <v>0.657514391044441</v>
+        <v>0.6574426551246429</v>
       </c>
       <c r="H88" t="n">
         <v>6.25</v>
@@ -7707,7 +7707,7 @@
         <v>0.68</v>
       </c>
       <c r="G91" t="n">
-        <v>1.00639539007557</v>
+        <v>1.00633797023454</v>
       </c>
       <c r="H91" t="n">
         <v>3.75</v>
@@ -8367,7 +8367,7 @@
         <v>0.04674</v>
       </c>
       <c r="G99" t="n">
-        <v>0.129745764359232</v>
+        <v>0.129696420454171</v>
       </c>
       <c r="H99" t="n">
         <v>1.4</v>
@@ -8448,7 +8448,7 @@
         <v>0.04674</v>
       </c>
       <c r="G100" t="n">
-        <v>0.129745764359232</v>
+        <v>0.129696420454171</v>
       </c>
       <c r="H100" t="n">
         <v>1.4</v>
@@ -8529,7 +8529,7 @@
         <v>0.41</v>
       </c>
       <c r="G101" t="n">
-        <v>0.615311001213932</v>
+        <v>0.615239265294135</v>
       </c>
       <c r="H101" t="n">
         <v>6.25</v>
@@ -8610,7 +8610,7 @@
         <v>0.41</v>
       </c>
       <c r="G102" t="n">
-        <v>0.615311001213932</v>
+        <v>0.615239265294135</v>
       </c>
       <c r="H102" t="n">
         <v>6.25</v>
@@ -8687,7 +8687,7 @@
         <v>0.57</v>
       </c>
       <c r="G103" t="n">
-        <v>0.719847457627119</v>
+        <v>0.719830508474576</v>
       </c>
       <c r="H103" t="n">
         <v>6.3</v>
@@ -8764,7 +8764,7 @@
         <v>0.57</v>
       </c>
       <c r="G104" t="n">
-        <v>0.719847457627119</v>
+        <v>0.719830508474576</v>
       </c>
       <c r="H104" t="n">
         <v>6.3</v>
@@ -8845,10 +8845,10 @@
         <v>0.5</v>
       </c>
       <c r="G105" t="n">
-        <v>0.950904721300087</v>
+        <v>0.962428743464586</v>
       </c>
       <c r="H105" t="n">
-        <v>6.26563648972215</v>
+        <v>6.9258361038778</v>
       </c>
       <c r="I105" t="n">
         <v>2.56</v>
@@ -9505,7 +9505,7 @@
         <v>0.05114</v>
       </c>
       <c r="G113" t="n">
-        <v>0.145086952801821</v>
+        <v>0.145035846614437</v>
       </c>
       <c r="H113" t="n">
         <v>1.4</v>
@@ -9586,7 +9586,7 @@
         <v>0.05114</v>
       </c>
       <c r="G114" t="n">
-        <v>0.145086952801821</v>
+        <v>0.145035846614437</v>
       </c>
       <c r="H114" t="n">
         <v>1.4</v>
@@ -9667,7 +9667,7 @@
         <v>0.415</v>
       </c>
       <c r="G115" t="n">
-        <v>0.61658698143244</v>
+        <v>0.616502333047079</v>
       </c>
       <c r="H115" t="n">
         <v>6.25</v>
@@ -9748,7 +9748,7 @@
         <v>0.415</v>
       </c>
       <c r="G116" t="n">
-        <v>0.61658698143244</v>
+        <v>0.616502333047079</v>
       </c>
       <c r="H116" t="n">
         <v>6.25</v>
@@ -9825,7 +9825,7 @@
         <v>0.638</v>
       </c>
       <c r="G117" t="n">
-        <v>0.753101694915254</v>
+        <v>0.753079661016949</v>
       </c>
       <c r="H117" t="n">
         <v>6.3</v>
@@ -9902,7 +9902,7 @@
         <v>0.638</v>
       </c>
       <c r="G118" t="n">
-        <v>0.753101694915254</v>
+        <v>0.753079661016949</v>
       </c>
       <c r="H118" t="n">
         <v>6.3</v>
@@ -9983,10 +9983,10 @@
         <v>0.5</v>
       </c>
       <c r="G119" t="n">
-        <v>1.00290795108652</v>
+        <v>1.01404132843189</v>
       </c>
       <c r="H119" t="n">
-        <v>6.26563648972215</v>
+        <v>6.9258361038778</v>
       </c>
       <c r="I119" t="n">
         <v>2.7275</v>
@@ -10643,7 +10643,7 @@
         <v>0.06082</v>
       </c>
       <c r="G127" t="n">
-        <v>0.16812259393009</v>
+        <v>0.168072384342484</v>
       </c>
       <c r="H127" t="n">
         <v>1.4</v>
@@ -10724,7 +10724,7 @@
         <v>0.06082</v>
       </c>
       <c r="G128" t="n">
-        <v>0.16812259393009</v>
+        <v>0.168072384342484</v>
       </c>
       <c r="H128" t="n">
         <v>1.4</v>
@@ -10805,7 +10805,7 @@
         <v>0.365</v>
       </c>
       <c r="G129" t="n">
-        <v>0.574579739800524</v>
+        <v>0.574478967913189</v>
       </c>
       <c r="H129" t="n">
         <v>6.25</v>
@@ -10886,7 +10886,7 @@
         <v>0.365</v>
       </c>
       <c r="G130" t="n">
-        <v>0.574579739800524</v>
+        <v>0.574478967913189</v>
       </c>
       <c r="H130" t="n">
         <v>6.25</v>
@@ -10963,7 +10963,7 @@
         <v>0.6035</v>
       </c>
       <c r="G131" t="n">
-        <v>0.739883333333333</v>
+        <v>0.739861666666667</v>
       </c>
       <c r="H131" t="n">
         <v>6.3</v>
@@ -11040,7 +11040,7 @@
         <v>0.6035</v>
       </c>
       <c r="G132" t="n">
-        <v>0.739883333333333</v>
+        <v>0.739861666666667</v>
       </c>
       <c r="H132" t="n">
         <v>6.3</v>
@@ -11275,10 +11275,10 @@
         <v>0.5</v>
       </c>
       <c r="G135" t="n">
-        <v>1.09581700200184</v>
+        <v>1.10734102416634</v>
       </c>
       <c r="H135" t="n">
-        <v>6.26563648972215</v>
+        <v>6.9258361038778</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -11935,7 +11935,7 @@
         <v>0.10637</v>
       </c>
       <c r="G143" t="n">
-        <v>0.253852429873021</v>
+        <v>0.253801323685636</v>
       </c>
       <c r="H143" t="n">
         <v>1.50753062316896</v>
@@ -12016,7 +12016,7 @@
         <v>0.10637</v>
       </c>
       <c r="G144" t="n">
-        <v>0.253852429873021</v>
+        <v>0.253801323685636</v>
       </c>
       <c r="H144" t="n">
         <v>1.50753062316896</v>
@@ -12097,7 +12097,7 @@
         <v>0.401</v>
       </c>
       <c r="G145" t="n">
-        <v>0.591764611502976</v>
+        <v>0.591661381764731</v>
       </c>
       <c r="H145" t="n">
         <v>6.25</v>
@@ -12178,7 +12178,7 @@
         <v>0.401</v>
       </c>
       <c r="G146" t="n">
-        <v>0.591764611502976</v>
+        <v>0.591661381764731</v>
       </c>
       <c r="H146" t="n">
         <v>6.25</v>
@@ -12255,7 +12255,7 @@
         <v>0.709</v>
       </c>
       <c r="G147" t="n">
-        <v>0.7811016949152541</v>
+        <v>0.781079661016949</v>
       </c>
       <c r="H147" t="n">
         <v>6.3</v>
@@ -12332,7 +12332,7 @@
         <v>0.709</v>
       </c>
       <c r="G148" t="n">
-        <v>0.7811016949152541</v>
+        <v>0.781079661016949</v>
       </c>
       <c r="H148" t="n">
         <v>6.3</v>
@@ -12567,13 +12567,13 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1.42989429405411</v>
+        <v>1.49137485427158</v>
       </c>
       <c r="H151" t="n">
-        <v>8.06557112384183</v>
+        <v>7.67459042816016</v>
       </c>
       <c r="I151" t="n">
-        <v>6.35998</v>
+        <v>6.54619</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -12584,7 +12584,7 @@
         <v>2.3</v>
       </c>
       <c r="N151" t="n">
-        <v>3.846</v>
+        <v>4.12897</v>
       </c>
       <c r="O151" t="n">
         <v>1814385</v>
@@ -13227,7 +13227,7 @@
         <v>0.1197</v>
       </c>
       <c r="G159" t="n">
-        <v>0.287150457769243</v>
+        <v>0.287100248181637</v>
       </c>
       <c r="H159" t="n">
         <v>1.50753062316896</v>
@@ -13308,7 +13308,7 @@
         <v>0.1197</v>
       </c>
       <c r="G160" t="n">
-        <v>0.287150457769243</v>
+        <v>0.287100248181637</v>
       </c>
       <c r="H160" t="n">
         <v>1.50753062316896</v>
@@ -13547,7 +13547,7 @@
         <v>0.742</v>
       </c>
       <c r="G163" t="n">
-        <v>0.767406779661017</v>
+        <v>0.767384745762712</v>
       </c>
       <c r="H163" t="n">
         <v>1.457</v>
@@ -13624,7 +13624,7 @@
         <v>0.742</v>
       </c>
       <c r="G164" t="n">
-        <v>0.767406779661017</v>
+        <v>0.767384745762712</v>
       </c>
       <c r="H164" t="n">
         <v>1.457</v>
@@ -14010,16 +14010,16 @@
         </is>
       </c>
       <c r="F169" t="n">
-        <v>1.10441</v>
+        <v>1.15</v>
       </c>
       <c r="G169" t="n">
-        <v>1.71567896741039</v>
+        <v>1.7805850815394</v>
       </c>
       <c r="H169" t="n">
         <v>8.5</v>
       </c>
       <c r="I169" t="n">
-        <v>6.67083</v>
+        <v>7.39033</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -14027,10 +14027,10 @@
         <v>1.9</v>
       </c>
       <c r="M169" t="n">
-        <v>3</v>
+        <v>3.032</v>
       </c>
       <c r="N169" t="n">
-        <v>6.29176</v>
+        <v>6.03638</v>
       </c>
       <c r="O169" t="n">
         <v>1814385</v>
@@ -14993,7 +14993,7 @@
         <v>0.782</v>
       </c>
       <c r="G181" t="n">
-        <v>0.786118644067797</v>
+        <v>0.786113559322034</v>
       </c>
       <c r="H181" t="n">
         <v>1.457</v>
@@ -15070,7 +15070,7 @@
         <v>0.782</v>
       </c>
       <c r="G182" t="n">
-        <v>0.786118644067797</v>
+        <v>0.786113559322034</v>
       </c>
       <c r="H182" t="n">
         <v>1.457</v>
@@ -15459,7 +15459,7 @@
         <v>8.5</v>
       </c>
       <c r="G187" t="n">
-        <v>20.5034807692308</v>
+        <v>20.5065576923077</v>
       </c>
       <c r="H187" t="n">
         <v>165</v>
@@ -15537,16 +15537,16 @@
         </is>
       </c>
       <c r="F188" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="G188" t="n">
-        <v>1.86792777728071</v>
+        <v>1.91965015089545</v>
       </c>
       <c r="H188" t="n">
         <v>8.5</v>
       </c>
       <c r="I188" t="n">
-        <v>6.65458</v>
+        <v>7.09012</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15554,10 +15554,10 @@
         <v>2.2</v>
       </c>
       <c r="M188" t="n">
-        <v>3.23</v>
+        <v>3.43</v>
       </c>
       <c r="N188" t="n">
-        <v>4.28608</v>
+        <v>4.31334</v>
       </c>
       <c r="O188" t="n">
         <v>1814385</v>
@@ -16520,7 +16520,7 @@
         <v>0.76</v>
       </c>
       <c r="G200" t="n">
-        <v>0.798118644067797</v>
+        <v>0.798113559322034</v>
       </c>
       <c r="H200" t="n">
         <v>1.953</v>
@@ -16597,7 +16597,7 @@
         <v>0.76</v>
       </c>
       <c r="G201" t="n">
-        <v>0.798118644067797</v>
+        <v>0.798113559322034</v>
       </c>
       <c r="H201" t="n">
         <v>1.953</v>
@@ -17063,7 +17063,7 @@
         <v>6.75</v>
       </c>
       <c r="G207" t="n">
-        <v>17.7787692307692</v>
+        <v>17.7818461538462</v>
       </c>
       <c r="H207" t="n">
         <v>140</v>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -17141,16 +17141,16 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="G208" t="n">
-        <v>1.99436702179014</v>
+        <v>2.04799534549169</v>
       </c>
       <c r="H208" t="n">
         <v>8.5</v>
       </c>
       <c r="I208" t="n">
-        <v>6.68708</v>
+        <v>7.25665</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17158,10 +17158,10 @@
         <v>2.3</v>
       </c>
       <c r="M208" t="n">
-        <v>3.698</v>
+        <v>3.849</v>
       </c>
       <c r="N208" t="n">
-        <v>4.6638</v>
+        <v>4.58495</v>
       </c>
       <c r="O208" t="n">
         <v>1814385</v>
@@ -18201,7 +18201,7 @@
         <v>0.716</v>
       </c>
       <c r="G221" t="n">
-        <v>0.76471186440678</v>
+        <v>0.7646847457627119</v>
       </c>
       <c r="H221" t="n">
         <v>1.953</v>
@@ -18215,7 +18215,7 @@
         <v>0.6645</v>
       </c>
       <c r="M221" t="n">
-        <v>1.11109</v>
+        <v>1.11098</v>
       </c>
       <c r="N221" t="n">
         <v>1.30102</v>
@@ -18278,7 +18278,7 @@
         <v>0.716</v>
       </c>
       <c r="G222" t="n">
-        <v>0.76471186440678</v>
+        <v>0.7646847457627119</v>
       </c>
       <c r="H222" t="n">
         <v>1.953</v>
@@ -18292,7 +18292,7 @@
         <v>0.6645</v>
       </c>
       <c r="M222" t="n">
-        <v>1.11109</v>
+        <v>1.11098</v>
       </c>
       <c r="N222" t="n">
         <v>1.30102</v>
@@ -18822,16 +18822,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="G229" t="n">
-        <v>2.22002110894548</v>
+        <v>2.27366922338452</v>
       </c>
       <c r="H229" t="n">
         <v>8.5</v>
       </c>
       <c r="I229" t="n">
-        <v>6.68708</v>
+        <v>7.25665</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18839,10 +18839,10 @@
         <v>3.4</v>
       </c>
       <c r="M229" t="n">
-        <v>3.9</v>
+        <v>3.949</v>
       </c>
       <c r="N229" t="n">
-        <v>5.3668</v>
+        <v>5.21869</v>
       </c>
       <c r="O229" t="n">
         <v>1814385</v>
@@ -19485,7 +19485,7 @@
         <v>0.11826</v>
       </c>
       <c r="G237" t="n">
-        <v>0.27355501765343</v>
+        <v>0.273547933485925</v>
       </c>
       <c r="H237" t="n">
         <v>2.23933178151261</v>
@@ -19566,7 +19566,7 @@
         <v>0.11826</v>
       </c>
       <c r="G238" t="n">
-        <v>0.27355501765343</v>
+        <v>0.273547933485925</v>
       </c>
       <c r="H238" t="n">
         <v>2.23933178151261</v>
@@ -19882,7 +19882,7 @@
         <v>0.7125</v>
       </c>
       <c r="G242" t="n">
-        <v>0.813133333333333</v>
+        <v>0.81312</v>
       </c>
       <c r="H242" t="n">
         <v>2.32</v>
@@ -19899,7 +19899,7 @@
         <v>1.207</v>
       </c>
       <c r="N242" t="n">
-        <v>1.471</v>
+        <v>1.47079</v>
       </c>
       <c r="O242" t="n">
         <v>1814385</v>
@@ -19959,7 +19959,7 @@
         <v>0.7125</v>
       </c>
       <c r="G243" t="n">
-        <v>0.813133333333333</v>
+        <v>0.81312</v>
       </c>
       <c r="H243" t="n">
         <v>2.32</v>
@@ -19976,7 +19976,7 @@
         <v>1.207</v>
       </c>
       <c r="N243" t="n">
-        <v>1.471</v>
+        <v>1.47079</v>
       </c>
       <c r="O243" t="n">
         <v>1814385</v>
@@ -20506,7 +20506,7 @@
         <v>1.8</v>
       </c>
       <c r="G250" t="n">
-        <v>2.05877530233342</v>
+        <v>2.05874925547415</v>
       </c>
       <c r="H250" t="n">
         <v>8.5</v>
@@ -21166,7 +21166,7 @@
         <v>0.09742000000000001</v>
       </c>
       <c r="G258" t="n">
-        <v>0.238983752188149</v>
+        <v>0.238926272007591</v>
       </c>
       <c r="H258" t="n">
         <v>2.23933178151261</v>
@@ -21247,7 +21247,7 @@
         <v>0.09742000000000001</v>
       </c>
       <c r="G259" t="n">
-        <v>0.238983752188149</v>
+        <v>0.238926272007591</v>
       </c>
       <c r="H259" t="n">
         <v>2.23933178151261</v>
@@ -21563,7 +21563,7 @@
         <v>0.755</v>
       </c>
       <c r="G263" t="n">
-        <v>0.8651</v>
+        <v>0.865086666666667</v>
       </c>
       <c r="H263" t="n">
         <v>2.32</v>
@@ -21574,7 +21574,7 @@
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
-        <v>0.78</v>
+        <v>0.7798</v>
       </c>
       <c r="M263" t="n">
         <v>1.3251</v>
@@ -21640,7 +21640,7 @@
         <v>0.755</v>
       </c>
       <c r="G264" t="n">
-        <v>0.8651</v>
+        <v>0.865086666666667</v>
       </c>
       <c r="H264" t="n">
         <v>2.32</v>
@@ -21651,7 +21651,7 @@
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
-        <v>0.78</v>
+        <v>0.7798</v>
       </c>
       <c r="M264" t="n">
         <v>1.3251</v>
@@ -22187,7 +22187,7 @@
         <v>1.45</v>
       </c>
       <c r="G271" t="n">
-        <v>1.73205519685127</v>
+        <v>1.73203054535946</v>
       </c>
       <c r="H271" t="n">
         <v>5.7</v>
@@ -22430,7 +22430,7 @@
         <v>144</v>
       </c>
       <c r="G274" t="n">
-        <v>1102.66113626615</v>
+        <v>1102.65868258512</v>
       </c>
       <c r="H274" t="n">
         <v>9678</v>
@@ -22515,7 +22515,7 @@
         <v>144</v>
       </c>
       <c r="G275" t="n">
-        <v>1102.66113626615</v>
+        <v>1102.65868258512</v>
       </c>
       <c r="H275" t="n">
         <v>9678</v>
@@ -22600,7 +22600,7 @@
         <v>144</v>
       </c>
       <c r="G276" t="n">
-        <v>1102.66113626615</v>
+        <v>1102.65868258512</v>
       </c>
       <c r="H276" t="n">
         <v>9678</v>
@@ -22685,7 +22685,7 @@
         <v>144</v>
       </c>
       <c r="G277" t="n">
-        <v>1102.66113626615</v>
+        <v>1102.65868258512</v>
       </c>
       <c r="H277" t="n">
         <v>9678</v>
@@ -22847,7 +22847,7 @@
         <v>0.09646</v>
       </c>
       <c r="G279" t="n">
-        <v>0.188757861707546</v>
+        <v>0.188699390489392</v>
       </c>
       <c r="H279" t="n">
         <v>1.16569618882088</v>
@@ -22928,7 +22928,7 @@
         <v>0.09646</v>
       </c>
       <c r="G280" t="n">
-        <v>0.188757861707546</v>
+        <v>0.188699390489392</v>
       </c>
       <c r="H280" t="n">
         <v>1.16569618882088</v>
@@ -23241,10 +23241,10 @@
         </is>
       </c>
       <c r="F284" t="n">
-        <v>0.849</v>
+        <v>0.8492</v>
       </c>
       <c r="G284" t="n">
-        <v>0.9027500000000001</v>
+        <v>0.902736666666667</v>
       </c>
       <c r="H284" t="n">
         <v>2.32</v>
@@ -23318,10 +23318,10 @@
         </is>
       </c>
       <c r="F285" t="n">
-        <v>0.849</v>
+        <v>0.8492</v>
       </c>
       <c r="G285" t="n">
-        <v>0.9027500000000001</v>
+        <v>0.902736666666667</v>
       </c>
       <c r="H285" t="n">
         <v>2.32</v>
@@ -23868,7 +23868,7 @@
         <v>0.74</v>
       </c>
       <c r="G292" t="n">
-        <v>1.46223376827984</v>
+        <v>1.46220911678804</v>
       </c>
       <c r="H292" t="n">
         <v>5.7</v>
@@ -24111,7 +24111,7 @@
         <v>204</v>
       </c>
       <c r="G295" t="n">
-        <v>1723.20562951949</v>
+        <v>1688.67678024583</v>
       </c>
       <c r="H295" t="n">
         <v>19000</v>
@@ -24196,7 +24196,7 @@
         <v>204</v>
       </c>
       <c r="G296" t="n">
-        <v>1723.20562951949</v>
+        <v>1688.67678024583</v>
       </c>
       <c r="H296" t="n">
         <v>19000</v>
@@ -24281,7 +24281,7 @@
         <v>204</v>
       </c>
       <c r="G297" t="n">
-        <v>1723.20562951949</v>
+        <v>1688.67678024583</v>
       </c>
       <c r="H297" t="n">
         <v>19000</v>
@@ -24366,7 +24366,7 @@
         <v>204</v>
       </c>
       <c r="G298" t="n">
-        <v>1723.20562951949</v>
+        <v>1688.67678024583</v>
       </c>
       <c r="H298" t="n">
         <v>19000</v>
@@ -24528,7 +24528,7 @@
         <v>0.08604000000000001</v>
       </c>
       <c r="G300" t="n">
-        <v>0.175729629667137</v>
+        <v>0.175669070191193</v>
       </c>
       <c r="H300" t="n">
         <v>1.16569618882088</v>
@@ -24609,7 +24609,7 @@
         <v>0.08604000000000001</v>
       </c>
       <c r="G301" t="n">
-        <v>0.175729629667137</v>
+        <v>0.175669070191193</v>
       </c>
       <c r="H301" t="n">
         <v>1.16569618882088</v>
@@ -24925,7 +24925,7 @@
         <v>0.915</v>
       </c>
       <c r="G305" t="n">
-        <v>0.917733333333333</v>
+        <v>0.917725</v>
       </c>
       <c r="H305" t="n">
         <v>2.32</v>
@@ -25002,7 +25002,7 @@
         <v>0.915</v>
       </c>
       <c r="G306" t="n">
-        <v>0.917733333333333</v>
+        <v>0.917725</v>
       </c>
       <c r="H306" t="n">
         <v>2.32</v>
@@ -25549,7 +25549,7 @@
         <v>0.665</v>
       </c>
       <c r="G313" t="n">
-        <v>1.33895976929712</v>
+        <v>1.33897785393656</v>
       </c>
       <c r="H313" t="n">
         <v>5.7</v>
@@ -25792,13 +25792,13 @@
         <v>240</v>
       </c>
       <c r="G316" t="n">
-        <v>1837.68166753614</v>
+        <v>1857.78889164951</v>
       </c>
       <c r="H316" t="n">
         <v>19000</v>
       </c>
       <c r="I316" t="n">
-        <v>13121.78114</v>
+        <v>13323.54293</v>
       </c>
       <c r="J316" t="n">
         <v>28.3333333333333</v>
@@ -25877,13 +25877,13 @@
         <v>240</v>
       </c>
       <c r="G317" t="n">
-        <v>1837.68166753614</v>
+        <v>1857.78889164951</v>
       </c>
       <c r="H317" t="n">
         <v>19000</v>
       </c>
       <c r="I317" t="n">
-        <v>13121.78114</v>
+        <v>13323.54293</v>
       </c>
       <c r="J317" t="n">
         <v>28.3333333333333</v>
@@ -25962,13 +25962,13 @@
         <v>240</v>
       </c>
       <c r="G318" t="n">
-        <v>1837.68166753614</v>
+        <v>1857.78889164951</v>
       </c>
       <c r="H318" t="n">
         <v>19000</v>
       </c>
       <c r="I318" t="n">
-        <v>13121.78114</v>
+        <v>13323.54293</v>
       </c>
       <c r="J318" t="n">
         <v>28.3333333333333</v>
@@ -26047,13 +26047,13 @@
         <v>240</v>
       </c>
       <c r="G319" t="n">
-        <v>1837.68166753614</v>
+        <v>1857.78889164951</v>
       </c>
       <c r="H319" t="n">
         <v>19000</v>
       </c>
       <c r="I319" t="n">
-        <v>13121.78114</v>
+        <v>13323.54293</v>
       </c>
       <c r="J319" t="n">
         <v>28.3333333333333</v>
@@ -26209,7 +26209,7 @@
         <v>0.08792</v>
       </c>
       <c r="G321" t="n">
-        <v>0.185703115552773</v>
+        <v>0.185609406885584</v>
       </c>
       <c r="H321" t="n">
         <v>1.1518796975474</v>
@@ -26290,7 +26290,7 @@
         <v>0.08792</v>
       </c>
       <c r="G322" t="n">
-        <v>0.185703115552773</v>
+        <v>0.185609406885584</v>
       </c>
       <c r="H322" t="n">
         <v>1.1518796975474</v>
@@ -26371,7 +26371,7 @@
         <v>0.622</v>
       </c>
       <c r="G323" t="n">
-        <v>0.729679846995174</v>
+        <v>0.729654319623907</v>
       </c>
       <c r="H323" t="n">
         <v>2.37</v>
@@ -26452,7 +26452,7 @@
         <v>0.622</v>
       </c>
       <c r="G324" t="n">
-        <v>0.729679846995174</v>
+        <v>0.729654319623907</v>
       </c>
       <c r="H324" t="n">
         <v>2.37</v>
@@ -26606,7 +26606,7 @@
         <v>0.945</v>
       </c>
       <c r="G326" t="n">
-        <v>0.948951341214751</v>
+        <v>0.9489271001009389</v>
       </c>
       <c r="H326" t="n">
         <v>2.59</v>
@@ -26683,7 +26683,7 @@
         <v>0.945</v>
       </c>
       <c r="G327" t="n">
-        <v>0.948951341214751</v>
+        <v>0.9489271001009389</v>
       </c>
       <c r="H327" t="n">
         <v>2.59</v>
@@ -27473,13 +27473,13 @@
         <v>185</v>
       </c>
       <c r="G337" t="n">
-        <v>1517.84310434773</v>
+        <v>1538.64368101673</v>
       </c>
       <c r="H337" t="n">
         <v>19000</v>
       </c>
       <c r="I337" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J337" t="n">
         <v>27.5862068965517</v>
@@ -27558,13 +27558,13 @@
         <v>185</v>
       </c>
       <c r="G338" t="n">
-        <v>1517.84310434773</v>
+        <v>1538.64368101673</v>
       </c>
       <c r="H338" t="n">
         <v>19000</v>
       </c>
       <c r="I338" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J338" t="n">
         <v>27.5862068965517</v>
@@ -27643,13 +27643,13 @@
         <v>185</v>
       </c>
       <c r="G339" t="n">
-        <v>1517.84310434773</v>
+        <v>1538.64368101673</v>
       </c>
       <c r="H339" t="n">
         <v>19000</v>
       </c>
       <c r="I339" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J339" t="n">
         <v>27.5862068965517</v>
@@ -27728,13 +27728,13 @@
         <v>185</v>
       </c>
       <c r="G340" t="n">
-        <v>1517.84310434773</v>
+        <v>1538.64368101673</v>
       </c>
       <c r="H340" t="n">
         <v>19000</v>
       </c>
       <c r="I340" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J340" t="n">
         <v>27.5862068965517</v>
@@ -27890,7 +27890,7 @@
         <v>0.08792</v>
       </c>
       <c r="G342" t="n">
-        <v>0.191655150121224</v>
+        <v>0.191562287164113</v>
       </c>
       <c r="H342" t="n">
         <v>1.1518796975474</v>
@@ -27901,7 +27901,7 @@
       <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
-        <v>0.09521</v>
+        <v>0.09404999999999999</v>
       </c>
       <c r="M342" t="n">
         <v>0.38426</v>
@@ -27971,7 +27971,7 @@
         <v>0.08792</v>
       </c>
       <c r="G343" t="n">
-        <v>0.191655150121224</v>
+        <v>0.191562287164113</v>
       </c>
       <c r="H343" t="n">
         <v>1.1518796975474</v>
@@ -27982,7 +27982,7 @@
       <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
-        <v>0.09521</v>
+        <v>0.09404999999999999</v>
       </c>
       <c r="M343" t="n">
         <v>0.38426</v>
@@ -28052,7 +28052,7 @@
         <v>0.607</v>
       </c>
       <c r="G344" t="n">
-        <v>0.6658008072889871</v>
+        <v>0.665672346597632</v>
       </c>
       <c r="H344" t="n">
         <v>2.37</v>
@@ -28133,7 +28133,7 @@
         <v>0.607</v>
       </c>
       <c r="G345" t="n">
-        <v>0.6658008072889871</v>
+        <v>0.665672346597632</v>
       </c>
       <c r="H345" t="n">
         <v>2.37</v>
@@ -28287,7 +28287,7 @@
         <v>0.92</v>
       </c>
       <c r="G347" t="n">
-        <v>0.8649166181844919</v>
+        <v>0.864878406882311</v>
       </c>
       <c r="H347" t="n">
         <v>2.59</v>
@@ -28364,7 +28364,7 @@
         <v>0.92</v>
       </c>
       <c r="G348" t="n">
-        <v>0.8649166181844919</v>
+        <v>0.864878406882311</v>
       </c>
       <c r="H348" t="n">
         <v>2.59</v>
@@ -28911,10 +28911,10 @@
         <v>0.55</v>
       </c>
       <c r="G355" t="n">
-        <v>1.23383514533671</v>
+        <v>1.23533885247858</v>
       </c>
       <c r="H355" t="n">
-        <v>7.47243842952902</v>
+        <v>7.55965344375779</v>
       </c>
       <c r="I355" t="n">
         <v>3.57</v>
@@ -29154,13 +29154,13 @@
         <v>220</v>
       </c>
       <c r="G358" t="n">
-        <v>1666.77413883049</v>
+        <v>1687.57471549949</v>
       </c>
       <c r="H358" t="n">
         <v>19000</v>
       </c>
       <c r="I358" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J358" t="n">
         <v>31.0344827586207</v>
@@ -29239,13 +29239,13 @@
         <v>220</v>
       </c>
       <c r="G359" t="n">
-        <v>1666.77413883049</v>
+        <v>1687.57471549949</v>
       </c>
       <c r="H359" t="n">
         <v>19000</v>
       </c>
       <c r="I359" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J359" t="n">
         <v>31.0344827586207</v>
@@ -29324,13 +29324,13 @@
         <v>220</v>
       </c>
       <c r="G360" t="n">
-        <v>1666.77413883049</v>
+        <v>1687.57471549949</v>
       </c>
       <c r="H360" t="n">
         <v>19000</v>
       </c>
       <c r="I360" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J360" t="n">
         <v>31.0344827586207</v>
@@ -29409,13 +29409,13 @@
         <v>220</v>
       </c>
       <c r="G361" t="n">
-        <v>1666.77413883049</v>
+        <v>1687.57471549949</v>
       </c>
       <c r="H361" t="n">
         <v>19000</v>
       </c>
       <c r="I361" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J361" t="n">
         <v>31.0344827586207</v>
@@ -29571,7 +29571,7 @@
         <v>0.08792</v>
       </c>
       <c r="G363" t="n">
-        <v>0.208731491193094</v>
+        <v>0.208667354872079</v>
       </c>
       <c r="H363" t="n">
         <v>1.1518796975474</v>
@@ -29582,7 +29582,7 @@
       <c r="J363" t="inlineStr"/>
       <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
-        <v>0.03489</v>
+        <v>0.0344</v>
       </c>
       <c r="M363" t="n">
         <v>0.48448</v>
@@ -29652,7 +29652,7 @@
         <v>0.08792</v>
       </c>
       <c r="G364" t="n">
-        <v>0.208731491193094</v>
+        <v>0.208667354872079</v>
       </c>
       <c r="H364" t="n">
         <v>1.1518796975474</v>
@@ -29663,7 +29663,7 @@
       <c r="J364" t="inlineStr"/>
       <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
-        <v>0.03489</v>
+        <v>0.0344</v>
       </c>
       <c r="M364" t="n">
         <v>0.48448</v>
@@ -29733,7 +29733,7 @@
         <v>0.54</v>
       </c>
       <c r="G365" t="n">
-        <v>0.578187793559267</v>
+        <v>0.57801944234775</v>
       </c>
       <c r="H365" t="n">
         <v>2.37</v>
@@ -29744,7 +29744,7 @@
       <c r="J365" t="inlineStr"/>
       <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
-        <v>0.12292</v>
+        <v>0.12174</v>
       </c>
       <c r="M365" t="n">
         <v>0.88009</v>
@@ -29814,7 +29814,7 @@
         <v>0.54</v>
       </c>
       <c r="G366" t="n">
-        <v>0.578187793559267</v>
+        <v>0.57801944234775</v>
       </c>
       <c r="H366" t="n">
         <v>2.37</v>
@@ -29825,7 +29825,7 @@
       <c r="J366" t="inlineStr"/>
       <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
-        <v>0.12292</v>
+        <v>0.12174</v>
       </c>
       <c r="M366" t="n">
         <v>0.88009</v>
@@ -29968,7 +29968,7 @@
         <v>0.82</v>
       </c>
       <c r="G368" t="n">
-        <v>0.786408143608221</v>
+        <v>0.786352983153497</v>
       </c>
       <c r="H368" t="n">
         <v>2.59</v>
@@ -29979,7 +29979,7 @@
       <c r="J368" t="inlineStr"/>
       <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
-        <v>0.12554</v>
+        <v>0.12441</v>
       </c>
       <c r="M368" t="n">
         <v>1.23887</v>
@@ -30045,7 +30045,7 @@
         <v>0.82</v>
       </c>
       <c r="G369" t="n">
-        <v>0.786408143608221</v>
+        <v>0.786352983153497</v>
       </c>
       <c r="H369" t="n">
         <v>2.59</v>
@@ -30056,7 +30056,7 @@
       <c r="J369" t="inlineStr"/>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
-        <v>0.12554</v>
+        <v>0.12441</v>
       </c>
       <c r="M369" t="n">
         <v>1.23887</v>
@@ -30592,10 +30592,10 @@
         <v>0.8</v>
       </c>
       <c r="G376" t="n">
-        <v>1.36004277946542</v>
+        <v>1.36157286743435</v>
       </c>
       <c r="H376" t="n">
-        <v>7.47243842952902</v>
+        <v>7.55965344375779</v>
       </c>
       <c r="I376" t="n">
         <v>4.6</v>
@@ -30835,13 +30835,13 @@
         <v>165</v>
       </c>
       <c r="G379" t="n">
-        <v>1540.69365303793</v>
+        <v>1561.49676799764</v>
       </c>
       <c r="H379" t="n">
         <v>19000</v>
       </c>
       <c r="I379" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J379" t="n">
         <v>27.5862068965517</v>
@@ -30920,13 +30920,13 @@
         <v>165</v>
       </c>
       <c r="G380" t="n">
-        <v>1540.69365303793</v>
+        <v>1561.49676799764</v>
       </c>
       <c r="H380" t="n">
         <v>19000</v>
       </c>
       <c r="I380" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J380" t="n">
         <v>27.5862068965517</v>
@@ -31005,13 +31005,13 @@
         <v>165</v>
       </c>
       <c r="G381" t="n">
-        <v>1540.69365303793</v>
+        <v>1561.49676799764</v>
       </c>
       <c r="H381" t="n">
         <v>19000</v>
       </c>
       <c r="I381" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J381" t="n">
         <v>27.5862068965517</v>
@@ -31090,13 +31090,13 @@
         <v>165</v>
       </c>
       <c r="G382" t="n">
-        <v>1540.69365303793</v>
+        <v>1561.49676799764</v>
       </c>
       <c r="H382" t="n">
         <v>19000</v>
       </c>
       <c r="I382" t="n">
-        <v>13146.13737</v>
+        <v>13388.25152</v>
       </c>
       <c r="J382" t="n">
         <v>27.5862068965517</v>
@@ -31252,7 +31252,7 @@
         <v>0.0801</v>
       </c>
       <c r="G384" t="n">
-        <v>0.183070901050198</v>
+        <v>0.183007998119971</v>
       </c>
       <c r="H384" t="n">
         <v>1.1518796975474</v>
@@ -31333,7 +31333,7 @@
         <v>0.0801</v>
       </c>
       <c r="G385" t="n">
-        <v>0.183070901050198</v>
+        <v>0.183007998119971</v>
       </c>
       <c r="H385" t="n">
         <v>1.1518796975474</v>
@@ -31414,7 +31414,7 @@
         <v>0.539</v>
       </c>
       <c r="G386" t="n">
-        <v>0.588391183389775</v>
+        <v>0.588222832178258</v>
       </c>
       <c r="H386" t="n">
         <v>2.37</v>
@@ -31425,7 +31425,7 @@
       <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
-        <v>0.12292</v>
+        <v>0.12174</v>
       </c>
       <c r="M386" t="n">
         <v>0.91581</v>
@@ -31495,7 +31495,7 @@
         <v>0.539</v>
       </c>
       <c r="G387" t="n">
-        <v>0.588391183389775</v>
+        <v>0.588222832178258</v>
       </c>
       <c r="H387" t="n">
         <v>2.37</v>
@@ -31506,7 +31506,7 @@
       <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
-        <v>0.12292</v>
+        <v>0.12174</v>
       </c>
       <c r="M387" t="n">
         <v>0.91581</v>
@@ -31649,7 +31649,7 @@
         <v>0.8</v>
       </c>
       <c r="G389" t="n">
-        <v>0.771442041913306</v>
+        <v>0.771386881458582</v>
       </c>
       <c r="H389" t="n">
         <v>2.59</v>
@@ -31660,7 +31660,7 @@
       <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
-        <v>0.12554</v>
+        <v>0.12441</v>
       </c>
       <c r="M389" t="n">
         <v>1.251</v>
@@ -31726,7 +31726,7 @@
         <v>0.8</v>
       </c>
       <c r="G390" t="n">
-        <v>0.771442041913306</v>
+        <v>0.771386881458582</v>
       </c>
       <c r="H390" t="n">
         <v>2.59</v>
@@ -31737,7 +31737,7 @@
       <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
-        <v>0.12554</v>
+        <v>0.12441</v>
       </c>
       <c r="M390" t="n">
         <v>1.251</v>
@@ -32085,6 +32085,1687 @@
         </is>
       </c>
     </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F395" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.3732</v>
+      </c>
+      <c r="H395" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="I395" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
+      <c r="L395" t="n">
+        <v>0.379</v>
+      </c>
+      <c r="M395" t="n">
+        <v>0.4309</v>
+      </c>
+      <c r="N395" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="O395" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P395" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q395" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R395" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S395" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T395" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (83rd Percentile)</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F396" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G396" t="n">
+        <v>31.7175860599431</v>
+      </c>
+      <c r="H396" t="n">
+        <v>100</v>
+      </c>
+      <c r="I396" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
+      <c r="L396" t="n">
+        <v>21</v>
+      </c>
+      <c r="M396" t="n">
+        <v>62.75</v>
+      </c>
+      <c r="N396" t="n">
+        <v>87</v>
+      </c>
+      <c r="O396" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P396" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q396" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R396" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S396" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T396" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 1)</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F397" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G397" t="n">
+        <v>1.37450300870113</v>
+      </c>
+      <c r="H397" t="n">
+        <v>7.55965344375779</v>
+      </c>
+      <c r="I397" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
+      <c r="L397" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M397" t="n">
+        <v>2.5915</v>
+      </c>
+      <c r="N397" t="n">
+        <v>3.933</v>
+      </c>
+      <c r="O397" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P397" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q397" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R397" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S397" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T397" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F398" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.031271186440678</v>
+      </c>
+      <c r="H398" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="I398" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
+      <c r="L398" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="M398" t="n">
+        <v>0.03629</v>
+      </c>
+      <c r="N398" t="n">
+        <v>0.05034</v>
+      </c>
+      <c r="O398" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P398" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q398" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R398" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S398" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T398" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F399" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.031271186440678</v>
+      </c>
+      <c r="H399" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="I399" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
+      <c r="L399" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="M399" t="n">
+        <v>0.03629</v>
+      </c>
+      <c r="N399" t="n">
+        <v>0.05034</v>
+      </c>
+      <c r="O399" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P399" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q399" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R399" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S399" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T399" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F400" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="G400" t="n">
+        <v>1086.82287386587</v>
+      </c>
+      <c r="H400" t="n">
+        <v>16521.7266842207</v>
+      </c>
+      <c r="I400" t="n">
+        <v>6414</v>
+      </c>
+      <c r="J400" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K400" t="n">
+        <v>39.6551724137931</v>
+      </c>
+      <c r="L400" t="n">
+        <v>86</v>
+      </c>
+      <c r="M400" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N400" t="n">
+        <v>3488.6</v>
+      </c>
+      <c r="O400" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P400" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q400" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R400" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S400" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T400" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F401" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="G401" t="n">
+        <v>1086.82287386587</v>
+      </c>
+      <c r="H401" t="n">
+        <v>16521.7266842207</v>
+      </c>
+      <c r="I401" t="n">
+        <v>6414</v>
+      </c>
+      <c r="J401" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K401" t="n">
+        <v>39.6551724137931</v>
+      </c>
+      <c r="L401" t="n">
+        <v>86</v>
+      </c>
+      <c r="M401" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N401" t="n">
+        <v>3488.6</v>
+      </c>
+      <c r="O401" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P401" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q401" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R401" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S401" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T401" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F402" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="G402" t="n">
+        <v>1086.82287386587</v>
+      </c>
+      <c r="H402" t="n">
+        <v>16521.7266842207</v>
+      </c>
+      <c r="I402" t="n">
+        <v>6414</v>
+      </c>
+      <c r="J402" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K402" t="n">
+        <v>39.6551724137931</v>
+      </c>
+      <c r="L402" t="n">
+        <v>86</v>
+      </c>
+      <c r="M402" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N402" t="n">
+        <v>3488.6</v>
+      </c>
+      <c r="O402" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P402" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q402" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R402" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S402" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T402" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F403" t="n">
+        <v>131.5</v>
+      </c>
+      <c r="G403" t="n">
+        <v>1086.82287386587</v>
+      </c>
+      <c r="H403" t="n">
+        <v>16521.7266842207</v>
+      </c>
+      <c r="I403" t="n">
+        <v>6414</v>
+      </c>
+      <c r="J403" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K403" t="n">
+        <v>39.6551724137931</v>
+      </c>
+      <c r="L403" t="n">
+        <v>86</v>
+      </c>
+      <c r="M403" t="n">
+        <v>1200</v>
+      </c>
+      <c r="N403" t="n">
+        <v>3488.6</v>
+      </c>
+      <c r="O403" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P403" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q403" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R403" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S403" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T403" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F404" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="G404" t="n">
+        <v>93.624</v>
+      </c>
+      <c r="H404" t="n">
+        <v>105</v>
+      </c>
+      <c r="I404" t="n">
+        <v>105</v>
+      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
+      <c r="L404" t="n">
+        <v>94.12</v>
+      </c>
+      <c r="M404" t="n">
+        <v>102.55</v>
+      </c>
+      <c r="N404" t="n">
+        <v>105</v>
+      </c>
+      <c r="O404" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P404" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q404" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R404" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S404" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T404" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F405" t="n">
+        <v>0.06967</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.140666884029336</v>
+      </c>
+      <c r="H405" t="n">
+        <v>1.1518796975474</v>
+      </c>
+      <c r="I405" t="n">
+        <v>0.54593</v>
+      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
+      <c r="L405" t="n">
+        <v>0.01266</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0.25816</v>
+      </c>
+      <c r="N405" t="n">
+        <v>0.49258</v>
+      </c>
+      <c r="O405" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P405" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q405" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R405" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S405" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T405" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F406" t="n">
+        <v>0.06967</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.140666884029336</v>
+      </c>
+      <c r="H406" t="n">
+        <v>1.1518796975474</v>
+      </c>
+      <c r="I406" t="n">
+        <v>0.54593</v>
+      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
+      <c r="L406" t="n">
+        <v>0.01266</v>
+      </c>
+      <c r="M406" t="n">
+        <v>0.25816</v>
+      </c>
+      <c r="N406" t="n">
+        <v>0.49258</v>
+      </c>
+      <c r="O406" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P406" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q406" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R406" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S406" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T406" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F407" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.560426222008767</v>
+      </c>
+      <c r="H407" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I407" t="n">
+        <v>1.2635</v>
+      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
+      <c r="L407" t="n">
+        <v>0.09634</v>
+      </c>
+      <c r="M407" t="n">
+        <v>0.94868</v>
+      </c>
+      <c r="N407" t="n">
+        <v>1.1178</v>
+      </c>
+      <c r="O407" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P407" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q407" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R407" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S407" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T407" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E408" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F408" t="n">
+        <v>0.538</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.560426222008767</v>
+      </c>
+      <c r="H408" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I408" t="n">
+        <v>1.2635</v>
+      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
+      <c r="L408" t="n">
+        <v>0.09634</v>
+      </c>
+      <c r="M408" t="n">
+        <v>0.94868</v>
+      </c>
+      <c r="N408" t="n">
+        <v>1.1178</v>
+      </c>
+      <c r="O408" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P408" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q408" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R408" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S408" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T408" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E409" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F409" t="n">
+        <v>5.784</v>
+      </c>
+      <c r="G409" t="n">
+        <v>5.8306</v>
+      </c>
+      <c r="H409" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="I409" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
+      <c r="L409" t="n">
+        <v>5.784</v>
+      </c>
+      <c r="M409" t="n">
+        <v>6.6565</v>
+      </c>
+      <c r="N409" t="n">
+        <v>7.01</v>
+      </c>
+      <c r="O409" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P409" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q409" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R409" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S409" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T409" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U409" t="inlineStr"/>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr"/>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E410" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F410" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.711471627221294</v>
+      </c>
+      <c r="H410" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I410" t="n">
+        <v>1.58165</v>
+      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
+      <c r="L410" t="n">
+        <v>0.10641</v>
+      </c>
+      <c r="M410" t="n">
+        <v>1.2387</v>
+      </c>
+      <c r="N410" t="n">
+        <v>1.39732</v>
+      </c>
+      <c r="O410" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P410" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q410" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R410" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S410" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T410" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr"/>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E411" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F411" t="n">
+        <v>0.723</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.711471627221294</v>
+      </c>
+      <c r="H411" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="I411" t="n">
+        <v>1.58165</v>
+      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
+      <c r="L411" t="n">
+        <v>0.10641</v>
+      </c>
+      <c r="M411" t="n">
+        <v>1.2387</v>
+      </c>
+      <c r="N411" t="n">
+        <v>1.39732</v>
+      </c>
+      <c r="O411" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P411" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q411" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R411" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S411" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T411" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr"/>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F412" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.9879661016949151</v>
+      </c>
+      <c r="H412" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I412" t="n">
+        <v>2.0695</v>
+      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
+      <c r="L412" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M412" t="n">
+        <v>1.4247</v>
+      </c>
+      <c r="N412" t="n">
+        <v>1.7724</v>
+      </c>
+      <c r="O412" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P412" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q412" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R412" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S412" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T412" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr"/>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E413" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F413" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.9879661016949151</v>
+      </c>
+      <c r="H413" t="n">
+        <v>5.02</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.0695</v>
+      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
+      <c r="L413" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="M413" t="n">
+        <v>1.4247</v>
+      </c>
+      <c r="N413" t="n">
+        <v>1.7724</v>
+      </c>
+      <c r="O413" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P413" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R413" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S413" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T413" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr"/>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E414" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F414" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.09435593220338979</v>
+      </c>
+      <c r="H414" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I414" t="n">
+        <v>0.30505</v>
+      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
+      <c r="L414" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M414" t="n">
+        <v>0.13817</v>
+      </c>
+      <c r="N414" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="O414" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P414" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q414" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R414" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S414" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T414" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Oroua at Awahuri Bridge</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr"/>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E415" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F415" t="n">
+        <v>0.039</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.09435593220338979</v>
+      </c>
+      <c r="H415" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I415" t="n">
+        <v>0.30505</v>
+      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
+      <c r="L415" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="M415" t="n">
+        <v>0.13817</v>
+      </c>
+      <c r="N415" t="n">
+        <v>0.2366</v>
+      </c>
+      <c r="O415" t="n">
+        <v>1814385</v>
+      </c>
+      <c r="P415" t="n">
+        <v>5538597</v>
+      </c>
+      <c r="Q415" t="inlineStr">
+        <is>
+          <t>Manawatu District</t>
+        </is>
+      </c>
+      <c r="R415" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S415" t="inlineStr">
+        <is>
+          <t>Oroua</t>
+        </is>
+      </c>
+      <c r="T415" t="inlineStr">
+        <is>
+          <t>Mana_12c</t>
+        </is>
+      </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
+++ b/state_results/Rivers/OrouaatAwahuriBridge_57d94fb236.xlsx
@@ -8845,10 +8845,10 @@
         <v>0.5</v>
       </c>
       <c r="G105" t="n">
-        <v>0.962428743464586</v>
+        <v>0.933944116272988</v>
       </c>
       <c r="H105" t="n">
-        <v>6.9258361038778</v>
+        <v>5.30221235395669</v>
       </c>
       <c r="I105" t="n">
         <v>2.56</v>
@@ -9983,10 +9983,10 @@
         <v>0.5</v>
       </c>
       <c r="G119" t="n">
-        <v>1.01404132843189</v>
+        <v>0.986522281823056</v>
       </c>
       <c r="H119" t="n">
-        <v>6.9258361038778</v>
+        <v>5.30221235395669</v>
       </c>
       <c r="I119" t="n">
         <v>2.7275</v>
@@ -11275,10 +11275,10 @@
         <v>0.5</v>
       </c>
       <c r="G135" t="n">
-        <v>1.10734102416634</v>
+        <v>1.07885639697474</v>
       </c>
       <c r="H135" t="n">
-        <v>6.9258361038778</v>
+        <v>5.30221235395669</v>
       </c>
       <c r="I135" t="n">
         <v>3</v>
@@ -12567,13 +12567,13 @@
         <v>1</v>
       </c>
       <c r="G151" t="n">
-        <v>1.49137485427158</v>
+        <v>1.35250448750879</v>
       </c>
       <c r="H151" t="n">
-        <v>7.67459042816016</v>
+        <v>8.096409851324211</v>
       </c>
       <c r="I151" t="n">
-        <v>6.54619</v>
+        <v>4.78252</v>
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
@@ -12584,7 +12584,7 @@
         <v>2.3</v>
       </c>
       <c r="N151" t="n">
-        <v>4.12897</v>
+        <v>3.846</v>
       </c>
       <c r="O151" t="n">
         <v>1814385</v>
@@ -14013,13 +14013,13 @@
         <v>1.15</v>
       </c>
       <c r="G169" t="n">
-        <v>1.7805850815394</v>
+        <v>1.6339996944009</v>
       </c>
       <c r="H169" t="n">
         <v>8.5</v>
       </c>
       <c r="I169" t="n">
-        <v>7.39033</v>
+        <v>5.22056</v>
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
@@ -14027,10 +14027,10 @@
         <v>1.9</v>
       </c>
       <c r="M169" t="n">
-        <v>3.032</v>
+        <v>3</v>
       </c>
       <c r="N169" t="n">
-        <v>6.03638</v>
+        <v>4.63289</v>
       </c>
       <c r="O169" t="n">
         <v>1814385</v>
@@ -15540,13 +15540,13 @@
         <v>1.3</v>
       </c>
       <c r="G188" t="n">
-        <v>1.91965015089545</v>
+        <v>1.80525038443076</v>
       </c>
       <c r="H188" t="n">
         <v>8.5</v>
       </c>
       <c r="I188" t="n">
-        <v>7.09012</v>
+        <v>4.81436</v>
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
@@ -15554,10 +15554,10 @@
         <v>2.2</v>
       </c>
       <c r="M188" t="n">
-        <v>3.43</v>
+        <v>3.23</v>
       </c>
       <c r="N188" t="n">
-        <v>4.31334</v>
+        <v>4.10256</v>
       </c>
       <c r="O188" t="n">
         <v>1814385</v>
@@ -17127,7 +17127,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -17141,16 +17141,16 @@
         </is>
       </c>
       <c r="F208" t="n">
-        <v>1.35</v>
+        <v>1.30782</v>
       </c>
       <c r="G208" t="n">
-        <v>2.04799534549169</v>
+        <v>1.92927860670758</v>
       </c>
       <c r="H208" t="n">
         <v>8.5</v>
       </c>
       <c r="I208" t="n">
-        <v>7.25665</v>
+        <v>4.8462</v>
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
@@ -17158,10 +17158,10 @@
         <v>2.3</v>
       </c>
       <c r="M208" t="n">
-        <v>3.849</v>
+        <v>3.698</v>
       </c>
       <c r="N208" t="n">
-        <v>4.58495</v>
+        <v>4.18665</v>
       </c>
       <c r="O208" t="n">
         <v>1814385</v>
@@ -18822,16 +18822,16 @@
         </is>
       </c>
       <c r="F229" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="G229" t="n">
-        <v>2.27366922338452</v>
+        <v>2.15495248460041</v>
       </c>
       <c r="H229" t="n">
         <v>8.5</v>
       </c>
       <c r="I229" t="n">
-        <v>7.25665</v>
+        <v>4.98409</v>
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
@@ -18839,10 +18839,10 @@
         <v>3.4</v>
       </c>
       <c r="M229" t="n">
-        <v>3.949</v>
+        <v>3.9</v>
       </c>
       <c r="N229" t="n">
-        <v>5.21869</v>
+        <v>4.65836</v>
       </c>
       <c r="O229" t="n">
         <v>1814385</v>
@@ -24111,10 +24111,10 @@
         <v>204</v>
       </c>
       <c r="G295" t="n">
-        <v>1688.67678024583</v>
+        <v>2158.30998934767</v>
       </c>
       <c r="H295" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I295" t="n">
         <v>9678</v>
@@ -24196,10 +24196,10 @@
         <v>204</v>
       </c>
       <c r="G296" t="n">
-        <v>1688.67678024583</v>
+        <v>2158.30998934767</v>
       </c>
       <c r="H296" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I296" t="n">
         <v>9678</v>
@@ -24281,10 +24281,10 @@
         <v>204</v>
       </c>
       <c r="G297" t="n">
-        <v>1688.67678024583</v>
+        <v>2158.30998934767</v>
       </c>
       <c r="H297" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I297" t="n">
         <v>9678</v>
@@ -24366,10 +24366,10 @@
         <v>204</v>
       </c>
       <c r="G298" t="n">
-        <v>1688.67678024583</v>
+        <v>2158.30998934767</v>
       </c>
       <c r="H298" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I298" t="n">
         <v>9678</v>
@@ -25792,13 +25792,13 @@
         <v>240</v>
       </c>
       <c r="G316" t="n">
-        <v>1857.78889164951</v>
+        <v>2228.41873023749</v>
       </c>
       <c r="H316" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I316" t="n">
-        <v>13323.54293</v>
+        <v>11790.76223</v>
       </c>
       <c r="J316" t="n">
         <v>28.3333333333333</v>
@@ -25877,13 +25877,13 @@
         <v>240</v>
       </c>
       <c r="G317" t="n">
-        <v>1857.78889164951</v>
+        <v>2228.41873023749</v>
       </c>
       <c r="H317" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I317" t="n">
-        <v>13323.54293</v>
+        <v>11790.76223</v>
       </c>
       <c r="J317" t="n">
         <v>28.3333333333333</v>
@@ -25962,13 +25962,13 @@
         <v>240</v>
       </c>
       <c r="G318" t="n">
-        <v>1857.78889164951</v>
+        <v>2228.41873023749</v>
       </c>
       <c r="H318" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I318" t="n">
-        <v>13323.54293</v>
+        <v>11790.76223</v>
       </c>
       <c r="J318" t="n">
         <v>28.3333333333333</v>
@@ -26047,13 +26047,13 @@
         <v>240</v>
       </c>
       <c r="G319" t="n">
-        <v>1857.78889164951</v>
+        <v>2228.41873023749</v>
       </c>
       <c r="H319" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I319" t="n">
-        <v>13323.54293</v>
+        <v>11790.76223</v>
       </c>
       <c r="J319" t="n">
         <v>28.3333333333333</v>
@@ -27473,13 +27473,13 @@
         <v>185</v>
       </c>
       <c r="G337" t="n">
-        <v>1538.64368101673</v>
+        <v>1922.05385886636</v>
       </c>
       <c r="H337" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I337" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J337" t="n">
         <v>27.5862068965517</v>
@@ -27558,13 +27558,13 @@
         <v>185</v>
       </c>
       <c r="G338" t="n">
-        <v>1538.64368101673</v>
+        <v>1922.05385886636</v>
       </c>
       <c r="H338" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I338" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J338" t="n">
         <v>27.5862068965517</v>
@@ -27643,13 +27643,13 @@
         <v>185</v>
       </c>
       <c r="G339" t="n">
-        <v>1538.64368101673</v>
+        <v>1922.05385886636</v>
       </c>
       <c r="H339" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I339" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J339" t="n">
         <v>27.5862068965517</v>
@@ -27728,13 +27728,13 @@
         <v>185</v>
       </c>
       <c r="G340" t="n">
-        <v>1538.64368101673</v>
+        <v>1922.05385886636</v>
       </c>
       <c r="H340" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I340" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J340" t="n">
         <v>27.5862068965517</v>
@@ -28911,10 +28911,10 @@
         <v>0.55</v>
       </c>
       <c r="G355" t="n">
-        <v>1.23533885247858</v>
+        <v>1.23497234516126</v>
       </c>
       <c r="H355" t="n">
-        <v>7.55965344375779</v>
+        <v>7.53839601935292</v>
       </c>
       <c r="I355" t="n">
         <v>3.57</v>
@@ -29154,13 +29154,13 @@
         <v>220</v>
       </c>
       <c r="G358" t="n">
-        <v>1687.57471549949</v>
+        <v>2070.98489334912</v>
       </c>
       <c r="H358" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I358" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J358" t="n">
         <v>31.0344827586207</v>
@@ -29239,13 +29239,13 @@
         <v>220</v>
       </c>
       <c r="G359" t="n">
-        <v>1687.57471549949</v>
+        <v>2070.98489334912</v>
       </c>
       <c r="H359" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I359" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J359" t="n">
         <v>31.0344827586207</v>
@@ -29324,13 +29324,13 @@
         <v>220</v>
       </c>
       <c r="G360" t="n">
-        <v>1687.57471549949</v>
+        <v>2070.98489334912</v>
       </c>
       <c r="H360" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I360" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J360" t="n">
         <v>31.0344827586207</v>
@@ -29409,13 +29409,13 @@
         <v>220</v>
       </c>
       <c r="G361" t="n">
-        <v>1687.57471549949</v>
+        <v>2070.98489334912</v>
       </c>
       <c r="H361" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I361" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J361" t="n">
         <v>31.0344827586207</v>
@@ -30592,10 +30592,10 @@
         <v>0.8</v>
       </c>
       <c r="G376" t="n">
-        <v>1.36157286743435</v>
+        <v>1.36119993016409</v>
       </c>
       <c r="H376" t="n">
-        <v>7.55965344375779</v>
+        <v>7.53839601935292</v>
       </c>
       <c r="I376" t="n">
         <v>4.6</v>
@@ -30835,13 +30835,13 @@
         <v>165</v>
       </c>
       <c r="G379" t="n">
-        <v>1561.49676799764</v>
+        <v>1944.90694584728</v>
       </c>
       <c r="H379" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I379" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J379" t="n">
         <v>27.5862068965517</v>
@@ -30920,13 +30920,13 @@
         <v>165</v>
       </c>
       <c r="G380" t="n">
-        <v>1561.49676799764</v>
+        <v>1944.90694584728</v>
       </c>
       <c r="H380" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I380" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J380" t="n">
         <v>27.5862068965517</v>
@@ -31005,13 +31005,13 @@
         <v>165</v>
       </c>
       <c r="G381" t="n">
-        <v>1561.49676799764</v>
+        <v>1944.90694584728</v>
       </c>
       <c r="H381" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I381" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J381" t="n">
         <v>27.5862068965517</v>
@@ -31090,13 +31090,13 @@
         <v>165</v>
       </c>
       <c r="G382" t="n">
-        <v>1561.49676799764</v>
+        <v>1944.90694584728</v>
       </c>
       <c r="H382" t="n">
-        <v>19000</v>
+        <v>41825.0784057529</v>
       </c>
       <c r="I382" t="n">
-        <v>13388.25152</v>
+        <v>12032.60978</v>
       </c>
       <c r="J382" t="n">
         <v>27.5862068965517</v>
@@ -32273,10 +32273,10 @@
         <v>0.8</v>
       </c>
       <c r="G397" t="n">
-        <v>1.37450300870113</v>
+        <v>1.3740861964579</v>
       </c>
       <c r="H397" t="n">
-        <v>7.55965344375779</v>
+        <v>7.53839601935292</v>
       </c>
       <c r="I397" t="n">
         <v>4.6</v>
@@ -32516,10 +32516,10 @@
         <v>131.5</v>
       </c>
       <c r="G400" t="n">
-        <v>1086.82287386587</v>
+        <v>984.40559402395</v>
       </c>
       <c r="H400" t="n">
-        <v>16521.7266842207</v>
+        <v>13000</v>
       </c>
       <c r="I400" t="n">
         <v>6414</v>
@@ -32601,10 +32601,10 @@
         <v>131.5</v>
       </c>
       <c r="G401" t="n">
-        <v>1086.82287386587</v>
+        <v>984.40559402395</v>
       </c>
       <c r="H401" t="n">
-        <v>16521.7266842207</v>
+        <v>13000</v>
       </c>
       <c r="I401" t="n">
         <v>6414</v>
@@ -32686,10 +32686,10 @@
         <v>131.5</v>
       </c>
       <c r="G402" t="n">
-        <v>1086.82287386587</v>
+        <v>984.40559402395</v>
       </c>
       <c r="H402" t="n">
-        <v>16521.7266842207</v>
+        <v>13000</v>
       </c>
       <c r="I402" t="n">
         <v>6414</v>
@@ -32771,10 +32771,10 @@
         <v>131.5</v>
       </c>
       <c r="G403" t="n">
-        <v>1086.82287386587</v>
+        <v>984.40559402395</v>
       </c>
       <c r="H403" t="n">
-        <v>16521.7266842207</v>
+        <v>13000</v>
       </c>
       <c r="I403" t="n">
         <v>6414</v>
